--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML.xlsx
@@ -497,16 +497,16 @@
         <v>99.60000000000002</v>
       </c>
       <c r="F2" t="n">
-        <v>307.6467895507812</v>
+        <v>180.231689453125</v>
       </c>
       <c r="G2" t="n">
-        <v>115.0670394897461</v>
+        <v>75.60057067871094</v>
       </c>
       <c r="H2" t="n">
-        <v>-475.659423828125</v>
+        <v>-485.054443359375</v>
       </c>
       <c r="I2" t="n">
-        <v>12.3992862701416</v>
+        <v>26.0262279510498</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>97.16666666666669</v>
       </c>
       <c r="F3" t="n">
-        <v>310.3059387207031</v>
+        <v>179.9908294677734</v>
       </c>
       <c r="G3" t="n">
-        <v>116.0046310424805</v>
+        <v>71.97225952148438</v>
       </c>
       <c r="H3" t="n">
-        <v>-470.0205078125</v>
+        <v>-474.9625244140625</v>
       </c>
       <c r="I3" t="n">
-        <v>15.25924587249756</v>
+        <v>24.97592163085938</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>94.73333333333335</v>
       </c>
       <c r="F4" t="n">
-        <v>312.8900146484375</v>
+        <v>179.5555572509766</v>
       </c>
       <c r="G4" t="n">
-        <v>116.6227874755859</v>
+        <v>68.16736602783203</v>
       </c>
       <c r="H4" t="n">
-        <v>-462.5880737304688</v>
+        <v>-440.0684814453125</v>
       </c>
       <c r="I4" t="n">
-        <v>20.19560050964355</v>
+        <v>49.60869979858398</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>92.30000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>314.3669128417969</v>
+        <v>178.9087982177734</v>
       </c>
       <c r="G5" t="n">
-        <v>116.0774612426758</v>
+        <v>64.22762298583984</v>
       </c>
       <c r="H5" t="n">
-        <v>-455.2298889160156</v>
+        <v>-379.0177917480469</v>
       </c>
       <c r="I5" t="n">
-        <v>25.44965934753418</v>
+        <v>127.9595565795898</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>89.86666666666669</v>
       </c>
       <c r="F6" t="n">
-        <v>315.0354614257812</v>
+        <v>178.0307769775391</v>
       </c>
       <c r="G6" t="n">
-        <v>115.1905288696289</v>
+        <v>60.20087814331055</v>
       </c>
       <c r="H6" t="n">
-        <v>-448.6610412597656</v>
+        <v>-303.9894104003906</v>
       </c>
       <c r="I6" t="n">
-        <v>31.5626392364502</v>
+        <v>185.3554382324219</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>87.43333333333335</v>
       </c>
       <c r="F7" t="n">
-        <v>315.4109191894531</v>
+        <v>176.8992767333984</v>
       </c>
       <c r="G7" t="n">
-        <v>114.0025329589844</v>
+        <v>56.13992309570312</v>
       </c>
       <c r="H7" t="n">
-        <v>-441.2793273925781</v>
+        <v>-215.4222412109375</v>
       </c>
       <c r="I7" t="n">
-        <v>38.70159149169922</v>
+        <v>211.9803466796875</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>85.00000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>315.5437622070312</v>
+        <v>175.4897613525391</v>
       </c>
       <c r="G8" t="n">
-        <v>112.2489624023438</v>
+        <v>52.10022735595703</v>
       </c>
       <c r="H8" t="n">
-        <v>-433.9982604980469</v>
+        <v>-127.8701553344727</v>
       </c>
       <c r="I8" t="n">
-        <v>47.09619903564453</v>
+        <v>230.8497924804688</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>82.56666666666669</v>
       </c>
       <c r="F9" t="n">
-        <v>315.7085266113281</v>
+        <v>173.7764892578125</v>
       </c>
       <c r="G9" t="n">
-        <v>110.0599060058594</v>
+        <v>48.13663864135742</v>
       </c>
       <c r="H9" t="n">
-        <v>-425.1581726074219</v>
+        <v>-58.15444946289062</v>
       </c>
       <c r="I9" t="n">
-        <v>57.66380310058594</v>
+        <v>244.5735626220703</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>80.13333333333335</v>
       </c>
       <c r="F10" t="n">
-        <v>315.5908203125</v>
+        <v>171.7340698242188</v>
       </c>
       <c r="G10" t="n">
-        <v>107.6069946289062</v>
+        <v>44.29865264892578</v>
       </c>
       <c r="H10" t="n">
-        <v>-414.9487609863281</v>
+        <v>-8.796058654785156</v>
       </c>
       <c r="I10" t="n">
-        <v>70.50559997558594</v>
+        <v>249.2438659667969</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>77.70000000000002</v>
       </c>
       <c r="F11" t="n">
-        <v>314.4340515136719</v>
+        <v>169.3401641845703</v>
       </c>
       <c r="G11" t="n">
-        <v>104.5284881591797</v>
+        <v>40.62529373168945</v>
       </c>
       <c r="H11" t="n">
-        <v>-403.9418640136719</v>
+        <v>24.68533325195312</v>
       </c>
       <c r="I11" t="n">
-        <v>84.28959655761719</v>
+        <v>252.4713439941406</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>75.26666666666668</v>
       </c>
       <c r="F12" t="n">
-        <v>312.0827026367188</v>
+        <v>166.5794372558594</v>
       </c>
       <c r="G12" t="n">
-        <v>99.99931335449219</v>
+        <v>37.14040756225586</v>
       </c>
       <c r="H12" t="n">
-        <v>-392.6688537597656</v>
+        <v>40.39848327636719</v>
       </c>
       <c r="I12" t="n">
-        <v>98.42555236816406</v>
+        <v>251.6121826171875</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +816,16 @@
         <v>72.83333333333334</v>
       </c>
       <c r="F13" t="n">
-        <v>309.0429077148438</v>
+        <v>163.4480133056641</v>
       </c>
       <c r="G13" t="n">
-        <v>94.13054656982422</v>
+        <v>33.8506965637207</v>
       </c>
       <c r="H13" t="n">
-        <v>-383.2067565917969</v>
+        <v>38.69892501831055</v>
       </c>
       <c r="I13" t="n">
-        <v>110.6833038330078</v>
+        <v>239.6207580566406</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         <v>70.40000000000002</v>
       </c>
       <c r="F14" t="n">
-        <v>304.9747314453125</v>
+        <v>159.9584503173828</v>
       </c>
       <c r="G14" t="n">
-        <v>86.95549011230469</v>
+        <v>30.74818229675293</v>
       </c>
       <c r="H14" t="n">
-        <v>-374.2874145507812</v>
+        <v>26.39996528625488</v>
       </c>
       <c r="I14" t="n">
-        <v>121.8394470214844</v>
+        <v>220.3340301513672</v>
       </c>
     </row>
     <row r="15">
@@ -874,16 +874,16 @@
         <v>67.96666666666668</v>
       </c>
       <c r="F15" t="n">
-        <v>299.4203186035156</v>
+        <v>156.1432037353516</v>
       </c>
       <c r="G15" t="n">
-        <v>79.66146850585938</v>
+        <v>27.81741142272949</v>
       </c>
       <c r="H15" t="n">
-        <v>-366.9546203613281</v>
+        <v>15.37427139282227</v>
       </c>
       <c r="I15" t="n">
-        <v>129.3423767089844</v>
+        <v>203.8133850097656</v>
       </c>
     </row>
     <row r="16">
@@ -903,16 +903,16 @@
         <v>65.53333333333336</v>
       </c>
       <c r="F16" t="n">
-        <v>293.8724365234375</v>
+        <v>152.0557403564453</v>
       </c>
       <c r="G16" t="n">
-        <v>73.23090362548828</v>
+        <v>25.04518508911133</v>
       </c>
       <c r="H16" t="n">
-        <v>-359.8955383300781</v>
+        <v>8.030043601989746</v>
       </c>
       <c r="I16" t="n">
-        <v>134.5569763183594</v>
+        <v>192.6739807128906</v>
       </c>
     </row>
     <row r="17">
@@ -932,16 +932,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>289.1273803710938</v>
+        <v>147.7683258056641</v>
       </c>
       <c r="G17" t="n">
-        <v>67.94521331787109</v>
+        <v>22.42837905883789</v>
       </c>
       <c r="H17" t="n">
-        <v>-352.33203125</v>
+        <v>1.288897156715393</v>
       </c>
       <c r="I17" t="n">
-        <v>137.3866119384766</v>
+        <v>181.418701171875</v>
       </c>
     </row>
     <row r="18">
@@ -961,16 +961,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F18" t="n">
-        <v>284.2239685058594</v>
+        <v>143.3658599853516</v>
       </c>
       <c r="G18" t="n">
-        <v>65.21968078613281</v>
+        <v>19.97669219970703</v>
       </c>
       <c r="H18" t="n">
-        <v>-344.2064208984375</v>
+        <v>-4.337436676025391</v>
       </c>
       <c r="I18" t="n">
-        <v>138.2151031494141</v>
+        <v>170.5476684570312</v>
       </c>
     </row>
     <row r="19">
@@ -990,16 +990,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>279.9035034179688</v>
+        <v>138.9378967285156</v>
       </c>
       <c r="G19" t="n">
-        <v>65.21988677978516</v>
+        <v>17.70913505554199</v>
       </c>
       <c r="H19" t="n">
-        <v>-335.704833984375</v>
+        <v>-8.467507362365723</v>
       </c>
       <c r="I19" t="n">
-        <v>138.8746643066406</v>
+        <v>161.9538726806641</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
         <v>55.8</v>
       </c>
       <c r="F20" t="n">
-        <v>275.7012329101562</v>
+        <v>134.5699920654297</v>
       </c>
       <c r="G20" t="n">
-        <v>66.94347381591797</v>
+        <v>15.64644432067871</v>
       </c>
       <c r="H20" t="n">
-        <v>-325.0594787597656</v>
+        <v>-12.68798065185547</v>
       </c>
       <c r="I20" t="n">
-        <v>142.7653198242188</v>
+        <v>154.6984405517578</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F21" t="n">
-        <v>275.1266784667969</v>
+        <v>130.3369140625</v>
       </c>
       <c r="G21" t="n">
-        <v>69.54229736328125</v>
+        <v>13.80323028564453</v>
       </c>
       <c r="H21" t="n">
-        <v>-314.6502990722656</v>
+        <v>-17.3156909942627</v>
       </c>
       <c r="I21" t="n">
-        <v>146.3273162841797</v>
+        <v>147.717529296875</v>
       </c>
     </row>
     <row r="22">
@@ -1077,16 +1077,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F22" t="n">
-        <v>272.8083801269531</v>
+        <v>126.2980651855469</v>
       </c>
       <c r="G22" t="n">
-        <v>70.83776092529297</v>
+        <v>12.18283653259277</v>
       </c>
       <c r="H22" t="n">
-        <v>-301.656494140625</v>
+        <v>-21.78987884521484</v>
       </c>
       <c r="I22" t="n">
-        <v>152.3822937011719</v>
+        <v>140.3986511230469</v>
       </c>
     </row>
     <row r="23">
@@ -1106,16 +1106,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>266.3129577636719</v>
+        <v>122.4960327148438</v>
       </c>
       <c r="G23" t="n">
-        <v>66.96678161621094</v>
+        <v>10.77618885040283</v>
       </c>
       <c r="H23" t="n">
-        <v>-286.2250061035156</v>
+        <v>-25.7661190032959</v>
       </c>
       <c r="I23" t="n">
-        <v>158.1337127685547</v>
+        <v>132.6969146728516</v>
       </c>
     </row>
     <row r="24">
@@ -1135,16 +1135,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F24" t="n">
-        <v>258.024169921875</v>
+        <v>118.9574279785156</v>
       </c>
       <c r="G24" t="n">
-        <v>61.04740524291992</v>
+        <v>9.564249038696289</v>
       </c>
       <c r="H24" t="n">
-        <v>-270.4532470703125</v>
+        <v>-29.17549133300781</v>
       </c>
       <c r="I24" t="n">
-        <v>160.0241546630859</v>
+        <v>124.7720108032227</v>
       </c>
     </row>
     <row r="25">
@@ -1164,16 +1164,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F25" t="n">
-        <v>250.4222869873047</v>
+        <v>115.6950302124023</v>
       </c>
       <c r="G25" t="n">
-        <v>56.01546859741211</v>
+        <v>8.522297859191895</v>
       </c>
       <c r="H25" t="n">
-        <v>-250.8630981445312</v>
+        <v>-32.02054977416992</v>
       </c>
       <c r="I25" t="n">
-        <v>161.3540496826172</v>
+        <v>116.6630172729492</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1193,16 @@
         <v>41.2</v>
       </c>
       <c r="F26" t="n">
-        <v>242.51904296875</v>
+        <v>112.7107238769531</v>
       </c>
       <c r="G26" t="n">
-        <v>51.9774169921875</v>
+        <v>7.624358654022217</v>
       </c>
       <c r="H26" t="n">
-        <v>-222.8820648193359</v>
+        <v>-34.40034484863281</v>
       </c>
       <c r="I26" t="n">
-        <v>166.6875305175781</v>
+        <v>108.3360900878906</v>
       </c>
     </row>
     <row r="27">
@@ -1222,16 +1222,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F27" t="n">
-        <v>235.6998748779297</v>
+        <v>109.9983444213867</v>
       </c>
       <c r="G27" t="n">
-        <v>50.43149185180664</v>
+        <v>6.846392631530762</v>
       </c>
       <c r="H27" t="n">
-        <v>-194.7803192138672</v>
+        <v>-36.51168441772461</v>
       </c>
       <c r="I27" t="n">
-        <v>166.9798889160156</v>
+        <v>99.79259490966797</v>
       </c>
     </row>
     <row r="28">
@@ -1251,16 +1251,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F28" t="n">
-        <v>229.8457794189453</v>
+        <v>107.5461730957031</v>
       </c>
       <c r="G28" t="n">
-        <v>50.73183822631836</v>
+        <v>6.167929649353027</v>
       </c>
       <c r="H28" t="n">
-        <v>-164.0423431396484</v>
+        <v>-38.58074569702148</v>
       </c>
       <c r="I28" t="n">
-        <v>160.5890655517578</v>
+        <v>91.138427734375</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1280,16 @@
         <v>33.9</v>
       </c>
       <c r="F29" t="n">
-        <v>223.5969085693359</v>
+        <v>105.3391342163086</v>
       </c>
       <c r="G29" t="n">
-        <v>51.64242172241211</v>
+        <v>5.572481155395508</v>
       </c>
       <c r="H29" t="n">
-        <v>-133.5168914794922</v>
+        <v>-40.80999374389648</v>
       </c>
       <c r="I29" t="n">
-        <v>152.6889190673828</v>
+        <v>82.60395050048828</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1309,16 @@
         <v>31.46666666666666</v>
       </c>
       <c r="F30" t="n">
-        <v>216.6510467529297</v>
+        <v>103.360107421875</v>
       </c>
       <c r="G30" t="n">
-        <v>52.36640930175781</v>
+        <v>5.047057151794434</v>
       </c>
       <c r="H30" t="n">
-        <v>-104.0092315673828</v>
+        <v>-43.36225891113281</v>
       </c>
       <c r="I30" t="n">
-        <v>141.0643615722656</v>
+        <v>74.49432373046875</v>
       </c>
     </row>
     <row r="31">
@@ -1338,16 +1338,16 @@
         <v>29.03333333333332</v>
       </c>
       <c r="F31" t="n">
-        <v>209.3052215576172</v>
+        <v>101.5911865234375</v>
       </c>
       <c r="G31" t="n">
-        <v>53.30424499511719</v>
+        <v>4.581432819366455</v>
       </c>
       <c r="H31" t="n">
-        <v>-79.5421142578125</v>
+        <v>-46.34334182739258</v>
       </c>
       <c r="I31" t="n">
-        <v>123.3440322875977</v>
+        <v>67.10404968261719</v>
       </c>
     </row>
     <row r="32">
@@ -1367,16 +1367,16 @@
         <v>26.6</v>
       </c>
       <c r="F32" t="n">
-        <v>202.1201934814453</v>
+        <v>100.0144348144531</v>
       </c>
       <c r="G32" t="n">
-        <v>53.86328125</v>
+        <v>4.167401313781738</v>
       </c>
       <c r="H32" t="n">
-        <v>-60.40410232543945</v>
+        <v>-49.76768112182617</v>
       </c>
       <c r="I32" t="n">
-        <v>99.97731018066406</v>
+        <v>60.64458465576172</v>
       </c>
     </row>
     <row r="33">
@@ -1396,16 +1396,16 @@
         <v>24.16666666666666</v>
       </c>
       <c r="F33" t="n">
-        <v>195.8412170410156</v>
+        <v>98.61231231689453</v>
       </c>
       <c r="G33" t="n">
-        <v>54.9237174987793</v>
+        <v>3.798205137252808</v>
       </c>
       <c r="H33" t="n">
-        <v>-52.86523056030273</v>
+        <v>-53.54203414916992</v>
       </c>
       <c r="I33" t="n">
-        <v>70.98569488525391</v>
+        <v>55.20652770996094</v>
       </c>
     </row>
     <row r="34">
@@ -1425,16 +1425,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F34" t="n">
-        <v>189.5566101074219</v>
+        <v>97.36811065673828</v>
       </c>
       <c r="G34" t="n">
-        <v>56.08736419677734</v>
+        <v>3.468092679977417</v>
       </c>
       <c r="H34" t="n">
-        <v>-52.88613128662109</v>
+        <v>-57.49200439453125</v>
       </c>
       <c r="I34" t="n">
-        <v>44.64838027954102</v>
+        <v>50.76336288452148</v>
       </c>
     </row>
     <row r="35">
@@ -1454,16 +1454,16 @@
         <v>19.3</v>
       </c>
       <c r="F35" t="n">
-        <v>183.5168151855469</v>
+        <v>96.26604461669922</v>
       </c>
       <c r="G35" t="n">
-        <v>57.10126876831055</v>
+        <v>3.172082662582397</v>
       </c>
       <c r="H35" t="n">
-        <v>-58.00984191894531</v>
+        <v>-61.41377639770508</v>
       </c>
       <c r="I35" t="n">
-        <v>28.2974967956543</v>
+        <v>47.21026611328125</v>
       </c>
     </row>
     <row r="36">
@@ -1483,16 +1483,16 @@
         <v>16.86666666666667</v>
       </c>
       <c r="F36" t="n">
-        <v>177.7474365234375</v>
+        <v>95.29150390625</v>
       </c>
       <c r="G36" t="n">
-        <v>57.28437042236328</v>
+        <v>2.905832052230835</v>
       </c>
       <c r="H36" t="n">
-        <v>-63.80594253540039</v>
+        <v>-65.11982727050781</v>
       </c>
       <c r="I36" t="n">
-        <v>23.12559509277344</v>
+        <v>44.4134635925293</v>
       </c>
     </row>
     <row r="37">
@@ -1512,16 +1512,16 @@
         <v>14.43333333333335</v>
       </c>
       <c r="F37" t="n">
-        <v>172.6018829345703</v>
+        <v>94.43093109130859</v>
       </c>
       <c r="G37" t="n">
-        <v>57.58284378051758</v>
+        <v>2.665526151657104</v>
       </c>
       <c r="H37" t="n">
-        <v>-67.78579711914062</v>
+        <v>-68.46622467041016</v>
       </c>
       <c r="I37" t="n">
-        <v>19.5556755065918</v>
+        <v>42.24627304077148</v>
       </c>
     </row>
     <row r="38">
@@ -1541,16 +1541,16 @@
         <v>12.00000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>168.0233306884766</v>
+        <v>93.67191314697266</v>
       </c>
       <c r="G38" t="n">
-        <v>57.80677032470703</v>
+        <v>2.447858572006226</v>
       </c>
       <c r="H38" t="n">
-        <v>-71.03700256347656</v>
+        <v>-71.36507415771484</v>
       </c>
       <c r="I38" t="n">
-        <v>17.67412948608398</v>
+        <v>40.60018157958984</v>
       </c>
     </row>
     <row r="39">
@@ -1570,16 +1570,16 @@
         <v>9.566666666666675</v>
       </c>
       <c r="F39" t="n">
-        <v>163.8820648193359</v>
+        <v>93.00320434570312</v>
       </c>
       <c r="G39" t="n">
-        <v>57.97037887573242</v>
+        <v>2.249981164932251</v>
       </c>
       <c r="H39" t="n">
-        <v>-74.04612731933594</v>
+        <v>-73.79103851318359</v>
       </c>
       <c r="I39" t="n">
-        <v>16.96734809875488</v>
+        <v>39.37821960449219</v>
       </c>
     </row>
     <row r="40">
@@ -1599,16 +1599,16 @@
         <v>7.133333333333338</v>
       </c>
       <c r="F40" t="n">
-        <v>160.2072906494141</v>
+        <v>92.41458892822266</v>
       </c>
       <c r="G40" t="n">
-        <v>58.29383850097656</v>
+        <v>2.069477319717407</v>
       </c>
       <c r="H40" t="n">
-        <v>-76.621337890625</v>
+        <v>-75.77970886230469</v>
       </c>
       <c r="I40" t="n">
-        <v>16.75898933410645</v>
+        <v>38.49137878417969</v>
       </c>
     </row>
     <row r="41">
@@ -1628,16 +1628,16 @@
         <v>4.700000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>156.9916687011719</v>
+        <v>91.89684295654297</v>
       </c>
       <c r="G41" t="n">
-        <v>58.75949478149414</v>
+        <v>1.904317021369934</v>
       </c>
       <c r="H41" t="n">
-        <v>-78.71334075927734</v>
+        <v>-77.41483306884766</v>
       </c>
       <c r="I41" t="n">
-        <v>16.50291061401367</v>
+        <v>37.86310195922852</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1</v>
+        <v>26.86666666666667</v>
       </c>
       <c r="B2" t="n">
         <v>0.1</v>
@@ -494,24 +494,24 @@
         <v>0.1</v>
       </c>
       <c r="E2" t="n">
-        <v>99.60000000000002</v>
+        <v>72.83333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>180.231689453125</v>
+        <v>163.4480133056641</v>
       </c>
       <c r="G2" t="n">
-        <v>75.60057067871094</v>
+        <v>33.8506965637207</v>
       </c>
       <c r="H2" t="n">
-        <v>-485.054443359375</v>
+        <v>38.69892501831055</v>
       </c>
       <c r="I2" t="n">
-        <v>26.0262279510498</v>
+        <v>239.6207580566406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.533333333333333</v>
+        <v>29.3</v>
       </c>
       <c r="B3" t="n">
         <v>0.1</v>
@@ -523,24 +523,24 @@
         <v>0.1</v>
       </c>
       <c r="E3" t="n">
-        <v>97.16666666666669</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>179.9908294677734</v>
+        <v>159.9584503173828</v>
       </c>
       <c r="G3" t="n">
-        <v>71.97225952148438</v>
+        <v>30.74818229675293</v>
       </c>
       <c r="H3" t="n">
-        <v>-474.9625244140625</v>
+        <v>26.39996528625488</v>
       </c>
       <c r="I3" t="n">
-        <v>24.97592163085938</v>
+        <v>220.3340301513672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.966666666666667</v>
+        <v>31.73333333333333</v>
       </c>
       <c r="B4" t="n">
         <v>0.1</v>
@@ -552,24 +552,24 @@
         <v>0.1</v>
       </c>
       <c r="E4" t="n">
-        <v>94.73333333333335</v>
+        <v>67.96666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>179.5555572509766</v>
+        <v>156.1432037353516</v>
       </c>
       <c r="G4" t="n">
-        <v>68.16736602783203</v>
+        <v>27.81741142272949</v>
       </c>
       <c r="H4" t="n">
-        <v>-440.0684814453125</v>
+        <v>15.37427139282227</v>
       </c>
       <c r="I4" t="n">
-        <v>49.60869979858398</v>
+        <v>203.8133850097656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.399999999999999</v>
+        <v>34.16666666666666</v>
       </c>
       <c r="B5" t="n">
         <v>0.1</v>
@@ -581,24 +581,24 @@
         <v>0.1</v>
       </c>
       <c r="E5" t="n">
-        <v>92.30000000000001</v>
+        <v>65.53333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>178.9087982177734</v>
+        <v>152.0557403564453</v>
       </c>
       <c r="G5" t="n">
-        <v>64.22762298583984</v>
+        <v>25.04518508911133</v>
       </c>
       <c r="H5" t="n">
-        <v>-379.0177917480469</v>
+        <v>8.030043601989746</v>
       </c>
       <c r="I5" t="n">
-        <v>127.9595565795898</v>
+        <v>192.6739807128906</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.833333333333332</v>
+        <v>36.6</v>
       </c>
       <c r="B6" t="n">
         <v>0.1</v>
@@ -610,24 +610,24 @@
         <v>0.1</v>
       </c>
       <c r="E6" t="n">
-        <v>89.86666666666669</v>
+        <v>63.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>178.0307769775391</v>
+        <v>147.7683258056641</v>
       </c>
       <c r="G6" t="n">
-        <v>60.20087814331055</v>
+        <v>22.42837905883789</v>
       </c>
       <c r="H6" t="n">
-        <v>-303.9894104003906</v>
+        <v>1.288897156715393</v>
       </c>
       <c r="I6" t="n">
-        <v>185.3554382324219</v>
+        <v>181.418701171875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.26666666666667</v>
+        <v>39.03333333333333</v>
       </c>
       <c r="B7" t="n">
         <v>0.1</v>
@@ -639,24 +639,24 @@
         <v>0.1</v>
       </c>
       <c r="E7" t="n">
-        <v>87.43333333333335</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>176.8992767333984</v>
+        <v>143.3658599853516</v>
       </c>
       <c r="G7" t="n">
-        <v>56.13992309570312</v>
+        <v>19.97669219970703</v>
       </c>
       <c r="H7" t="n">
-        <v>-215.4222412109375</v>
+        <v>-4.337436676025391</v>
       </c>
       <c r="I7" t="n">
-        <v>211.9803466796875</v>
+        <v>170.5476684570312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14.7</v>
+        <v>41.46666666666666</v>
       </c>
       <c r="B8" t="n">
         <v>0.1</v>
@@ -668,24 +668,24 @@
         <v>0.1</v>
       </c>
       <c r="E8" t="n">
-        <v>85.00000000000001</v>
+        <v>58.23333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>175.4897613525391</v>
+        <v>138.9378967285156</v>
       </c>
       <c r="G8" t="n">
-        <v>52.10022735595703</v>
+        <v>17.70913505554199</v>
       </c>
       <c r="H8" t="n">
-        <v>-127.8701553344727</v>
+        <v>-8.467507362365723</v>
       </c>
       <c r="I8" t="n">
-        <v>230.8497924804688</v>
+        <v>161.9538726806641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17.13333333333333</v>
+        <v>43.89999999999999</v>
       </c>
       <c r="B9" t="n">
         <v>0.1</v>
@@ -697,24 +697,24 @@
         <v>0.1</v>
       </c>
       <c r="E9" t="n">
-        <v>82.56666666666669</v>
+        <v>55.8</v>
       </c>
       <c r="F9" t="n">
-        <v>173.7764892578125</v>
+        <v>134.5699920654297</v>
       </c>
       <c r="G9" t="n">
-        <v>48.13663864135742</v>
+        <v>15.64644432067871</v>
       </c>
       <c r="H9" t="n">
-        <v>-58.15444946289062</v>
+        <v>-12.68798065185547</v>
       </c>
       <c r="I9" t="n">
-        <v>244.5735626220703</v>
+        <v>154.6984405517578</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19.56666666666667</v>
+        <v>46.33333333333333</v>
       </c>
       <c r="B10" t="n">
         <v>0.1</v>
@@ -726,24 +726,24 @@
         <v>0.1</v>
       </c>
       <c r="E10" t="n">
-        <v>80.13333333333335</v>
+        <v>53.36666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>171.7340698242188</v>
+        <v>130.3369140625</v>
       </c>
       <c r="G10" t="n">
-        <v>44.29865264892578</v>
+        <v>13.80323028564453</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.796058654785156</v>
+        <v>-17.3156909942627</v>
       </c>
       <c r="I10" t="n">
-        <v>249.2438659667969</v>
+        <v>147.717529296875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22</v>
+        <v>48.76666666666667</v>
       </c>
       <c r="B11" t="n">
         <v>0.1</v>
@@ -755,24 +755,24 @@
         <v>0.1</v>
       </c>
       <c r="E11" t="n">
-        <v>77.70000000000002</v>
+        <v>50.93333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>169.3401641845703</v>
+        <v>126.2980651855469</v>
       </c>
       <c r="G11" t="n">
-        <v>40.62529373168945</v>
+        <v>12.18283653259277</v>
       </c>
       <c r="H11" t="n">
-        <v>24.68533325195312</v>
+        <v>-21.78987884521484</v>
       </c>
       <c r="I11" t="n">
-        <v>252.4713439941406</v>
+        <v>140.3986511230469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24.43333333333333</v>
+        <v>51.2</v>
       </c>
       <c r="B12" t="n">
         <v>0.1</v>
@@ -784,24 +784,24 @@
         <v>0.1</v>
       </c>
       <c r="E12" t="n">
-        <v>75.26666666666668</v>
+        <v>48.49999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>166.5794372558594</v>
+        <v>122.4960327148438</v>
       </c>
       <c r="G12" t="n">
-        <v>37.14040756225586</v>
+        <v>10.77618885040283</v>
       </c>
       <c r="H12" t="n">
-        <v>40.39848327636719</v>
+        <v>-25.7661190032959</v>
       </c>
       <c r="I12" t="n">
-        <v>251.6121826171875</v>
+        <v>132.6969146728516</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>26.86666666666667</v>
+        <v>53.63333333333333</v>
       </c>
       <c r="B13" t="n">
         <v>0.1</v>
@@ -813,24 +813,24 @@
         <v>0.1</v>
       </c>
       <c r="E13" t="n">
-        <v>72.83333333333334</v>
+        <v>46.06666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>163.4480133056641</v>
+        <v>118.9574279785156</v>
       </c>
       <c r="G13" t="n">
-        <v>33.8506965637207</v>
+        <v>9.564249038696289</v>
       </c>
       <c r="H13" t="n">
-        <v>38.69892501831055</v>
+        <v>-29.17549133300781</v>
       </c>
       <c r="I13" t="n">
-        <v>239.6207580566406</v>
+        <v>124.7720108032227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>29.3</v>
+        <v>56.06666666666666</v>
       </c>
       <c r="B14" t="n">
         <v>0.1</v>
@@ -842,24 +842,24 @@
         <v>0.1</v>
       </c>
       <c r="E14" t="n">
-        <v>70.40000000000002</v>
+        <v>43.63333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>159.9584503173828</v>
+        <v>115.6950302124023</v>
       </c>
       <c r="G14" t="n">
-        <v>30.74818229675293</v>
+        <v>8.522297859191895</v>
       </c>
       <c r="H14" t="n">
-        <v>26.39996528625488</v>
+        <v>-32.02054977416992</v>
       </c>
       <c r="I14" t="n">
-        <v>220.3340301513672</v>
+        <v>116.6630172729492</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>31.73333333333333</v>
+        <v>58.5</v>
       </c>
       <c r="B15" t="n">
         <v>0.1</v>
@@ -871,24 +871,24 @@
         <v>0.1</v>
       </c>
       <c r="E15" t="n">
-        <v>67.96666666666668</v>
+        <v>41.2</v>
       </c>
       <c r="F15" t="n">
-        <v>156.1432037353516</v>
+        <v>112.7107238769531</v>
       </c>
       <c r="G15" t="n">
-        <v>27.81741142272949</v>
+        <v>7.624358654022217</v>
       </c>
       <c r="H15" t="n">
-        <v>15.37427139282227</v>
+        <v>-34.40034484863281</v>
       </c>
       <c r="I15" t="n">
-        <v>203.8133850097656</v>
+        <v>108.3360900878906</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>34.16666666666666</v>
+        <v>60.93333333333333</v>
       </c>
       <c r="B16" t="n">
         <v>0.1</v>
@@ -900,24 +900,24 @@
         <v>0.1</v>
       </c>
       <c r="E16" t="n">
-        <v>65.53333333333336</v>
+        <v>38.76666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>152.0557403564453</v>
+        <v>109.9983444213867</v>
       </c>
       <c r="G16" t="n">
-        <v>25.04518508911133</v>
+        <v>6.846392631530762</v>
       </c>
       <c r="H16" t="n">
-        <v>8.030043601989746</v>
+        <v>-36.51168441772461</v>
       </c>
       <c r="I16" t="n">
-        <v>192.6739807128906</v>
+        <v>99.79259490966797</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>36.6</v>
+        <v>63.36666666666666</v>
       </c>
       <c r="B17" t="n">
         <v>0.1</v>
@@ -929,24 +929,24 @@
         <v>0.1</v>
       </c>
       <c r="E17" t="n">
-        <v>63.09999999999999</v>
+        <v>36.33333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>147.7683258056641</v>
+        <v>107.5461730957031</v>
       </c>
       <c r="G17" t="n">
-        <v>22.42837905883789</v>
+        <v>6.167929649353027</v>
       </c>
       <c r="H17" t="n">
-        <v>1.288897156715393</v>
+        <v>-38.58074569702148</v>
       </c>
       <c r="I17" t="n">
-        <v>181.418701171875</v>
+        <v>91.138427734375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>39.03333333333333</v>
+        <v>65.8</v>
       </c>
       <c r="B18" t="n">
         <v>0.1</v>
@@ -958,24 +958,24 @@
         <v>0.1</v>
       </c>
       <c r="E18" t="n">
-        <v>60.66666666666666</v>
+        <v>33.90000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>143.3658599853516</v>
+        <v>105.3391342163086</v>
       </c>
       <c r="G18" t="n">
-        <v>19.97669219970703</v>
+        <v>5.572481155395508</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.337436676025391</v>
+        <v>-40.80999374389648</v>
       </c>
       <c r="I18" t="n">
-        <v>170.5476684570312</v>
+        <v>82.60395050048828</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>41.46666666666666</v>
+        <v>68.23333333333333</v>
       </c>
       <c r="B19" t="n">
         <v>0.1</v>
@@ -987,24 +987,24 @@
         <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>58.23333333333333</v>
+        <v>31.46666666666668</v>
       </c>
       <c r="F19" t="n">
-        <v>138.9378967285156</v>
+        <v>103.360107421875</v>
       </c>
       <c r="G19" t="n">
-        <v>17.70913505554199</v>
+        <v>5.047057151794434</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.467507362365723</v>
+        <v>-43.36225891113281</v>
       </c>
       <c r="I19" t="n">
-        <v>161.9538726806641</v>
+        <v>74.49432373046875</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43.89999999999999</v>
+        <v>70.66666666666667</v>
       </c>
       <c r="B20" t="n">
         <v>0.1</v>
@@ -1016,24 +1016,24 @@
         <v>0.1</v>
       </c>
       <c r="E20" t="n">
-        <v>55.8</v>
+        <v>29.03333333333335</v>
       </c>
       <c r="F20" t="n">
-        <v>134.5699920654297</v>
+        <v>101.5911865234375</v>
       </c>
       <c r="G20" t="n">
-        <v>15.64644432067871</v>
+        <v>4.581432819366455</v>
       </c>
       <c r="H20" t="n">
-        <v>-12.68798065185547</v>
+        <v>-46.34334182739258</v>
       </c>
       <c r="I20" t="n">
-        <v>154.6984405517578</v>
+        <v>67.10404968261719</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>46.33333333333333</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="B21" t="n">
         <v>0.1</v>
@@ -1045,24 +1045,24 @@
         <v>0.1</v>
       </c>
       <c r="E21" t="n">
-        <v>53.36666666666667</v>
+        <v>26.60000000000002</v>
       </c>
       <c r="F21" t="n">
-        <v>130.3369140625</v>
+        <v>100.0144348144531</v>
       </c>
       <c r="G21" t="n">
-        <v>13.80323028564453</v>
+        <v>4.167402267456055</v>
       </c>
       <c r="H21" t="n">
-        <v>-17.3156909942627</v>
+        <v>-49.76766586303711</v>
       </c>
       <c r="I21" t="n">
-        <v>147.717529296875</v>
+        <v>60.64457702636719</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>48.76666666666667</v>
+        <v>75.53333333333333</v>
       </c>
       <c r="B22" t="n">
         <v>0.1</v>
@@ -1074,24 +1074,24 @@
         <v>0.1</v>
       </c>
       <c r="E22" t="n">
-        <v>50.93333333333333</v>
+        <v>24.16666666666669</v>
       </c>
       <c r="F22" t="n">
-        <v>126.2980651855469</v>
+        <v>98.61231231689453</v>
       </c>
       <c r="G22" t="n">
-        <v>12.18283653259277</v>
+        <v>3.79820704460144</v>
       </c>
       <c r="H22" t="n">
-        <v>-21.78987884521484</v>
+        <v>-53.54202651977539</v>
       </c>
       <c r="I22" t="n">
-        <v>140.3986511230469</v>
+        <v>55.20651245117188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>51.2</v>
+        <v>77.96666666666667</v>
       </c>
       <c r="B23" t="n">
         <v>0.1</v>
@@ -1103,24 +1103,24 @@
         <v>0.1</v>
       </c>
       <c r="E23" t="n">
-        <v>48.49999999999999</v>
+        <v>21.73333333333335</v>
       </c>
       <c r="F23" t="n">
-        <v>122.4960327148438</v>
+        <v>97.36811065673828</v>
       </c>
       <c r="G23" t="n">
-        <v>10.77618885040283</v>
+        <v>3.46809196472168</v>
       </c>
       <c r="H23" t="n">
-        <v>-25.7661190032959</v>
+        <v>-57.49200439453125</v>
       </c>
       <c r="I23" t="n">
-        <v>132.6969146728516</v>
+        <v>50.76337432861328</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>53.63333333333333</v>
+        <v>80.39999999999999</v>
       </c>
       <c r="B24" t="n">
         <v>0.1</v>
@@ -1132,24 +1132,24 @@
         <v>0.1</v>
       </c>
       <c r="E24" t="n">
-        <v>46.06666666666666</v>
+        <v>19.30000000000003</v>
       </c>
       <c r="F24" t="n">
-        <v>118.9574279785156</v>
+        <v>96.26605224609375</v>
       </c>
       <c r="G24" t="n">
-        <v>9.564249038696289</v>
+        <v>3.172086715698242</v>
       </c>
       <c r="H24" t="n">
-        <v>-29.17549133300781</v>
+        <v>-61.41377639770508</v>
       </c>
       <c r="I24" t="n">
-        <v>124.7720108032227</v>
+        <v>47.21028137207031</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>56.06666666666666</v>
+        <v>82.83333333333333</v>
       </c>
       <c r="B25" t="n">
         <v>0.1</v>
@@ -1161,24 +1161,24 @@
         <v>0.1</v>
       </c>
       <c r="E25" t="n">
-        <v>43.63333333333333</v>
+        <v>16.86666666666669</v>
       </c>
       <c r="F25" t="n">
-        <v>115.6950302124023</v>
+        <v>95.29150390625</v>
       </c>
       <c r="G25" t="n">
-        <v>8.522297859191895</v>
+        <v>2.905833959579468</v>
       </c>
       <c r="H25" t="n">
-        <v>-32.02054977416992</v>
+        <v>-65.11988830566406</v>
       </c>
       <c r="I25" t="n">
-        <v>116.6630172729492</v>
+        <v>44.41344451904297</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>58.5</v>
+        <v>85.26666666666665</v>
       </c>
       <c r="B26" t="n">
         <v>0.1</v>
@@ -1190,24 +1190,24 @@
         <v>0.1</v>
       </c>
       <c r="E26" t="n">
-        <v>41.2</v>
+        <v>14.43333333333337</v>
       </c>
       <c r="F26" t="n">
-        <v>112.7107238769531</v>
+        <v>94.43093109130859</v>
       </c>
       <c r="G26" t="n">
-        <v>7.624358654022217</v>
+        <v>2.665525913238525</v>
       </c>
       <c r="H26" t="n">
-        <v>-34.40034484863281</v>
+        <v>-68.46622467041016</v>
       </c>
       <c r="I26" t="n">
-        <v>108.3360900878906</v>
+        <v>42.24628829956055</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>60.93333333333333</v>
+        <v>87.69999999999999</v>
       </c>
       <c r="B27" t="n">
         <v>0.1</v>
@@ -1219,24 +1219,24 @@
         <v>0.1</v>
       </c>
       <c r="E27" t="n">
-        <v>38.76666666666667</v>
+        <v>12.00000000000003</v>
       </c>
       <c r="F27" t="n">
-        <v>109.9983444213867</v>
+        <v>93.67191314697266</v>
       </c>
       <c r="G27" t="n">
-        <v>6.846392631530762</v>
+        <v>2.447859048843384</v>
       </c>
       <c r="H27" t="n">
-        <v>-36.51168441772461</v>
+        <v>-71.36506652832031</v>
       </c>
       <c r="I27" t="n">
-        <v>99.79259490966797</v>
+        <v>40.60018539428711</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>63.36666666666666</v>
+        <v>90.13333333333333</v>
       </c>
       <c r="B28" t="n">
         <v>0.1</v>
@@ -1248,24 +1248,24 @@
         <v>0.1</v>
       </c>
       <c r="E28" t="n">
-        <v>36.33333333333334</v>
+        <v>9.566666666666691</v>
       </c>
       <c r="F28" t="n">
-        <v>107.5461730957031</v>
+        <v>93.00320434570312</v>
       </c>
       <c r="G28" t="n">
-        <v>6.167929649353027</v>
+        <v>2.249981641769409</v>
       </c>
       <c r="H28" t="n">
-        <v>-38.58074569702148</v>
+        <v>-73.79104614257812</v>
       </c>
       <c r="I28" t="n">
-        <v>91.138427734375</v>
+        <v>39.37821197509766</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>65.8</v>
+        <v>92.56666666666666</v>
       </c>
       <c r="B29" t="n">
         <v>0.1</v>
@@ -1277,24 +1277,24 @@
         <v>0.1</v>
       </c>
       <c r="E29" t="n">
-        <v>33.9</v>
+        <v>7.133333333333354</v>
       </c>
       <c r="F29" t="n">
-        <v>105.3391342163086</v>
+        <v>92.41458892822266</v>
       </c>
       <c r="G29" t="n">
-        <v>5.572481155395508</v>
+        <v>2.069476366043091</v>
       </c>
       <c r="H29" t="n">
-        <v>-40.80999374389648</v>
+        <v>-75.77972412109375</v>
       </c>
       <c r="I29" t="n">
-        <v>82.60395050048828</v>
+        <v>38.49136352539062</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>68.23333333333333</v>
+        <v>95</v>
       </c>
       <c r="B30" t="n">
         <v>0.1</v>
@@ -1306,338 +1306,19 @@
         <v>0.1</v>
       </c>
       <c r="E30" t="n">
-        <v>31.46666666666666</v>
+        <v>4.700000000000017</v>
       </c>
       <c r="F30" t="n">
-        <v>103.360107421875</v>
+        <v>91.89684295654297</v>
       </c>
       <c r="G30" t="n">
-        <v>5.047057151794434</v>
+        <v>1.904317855834961</v>
       </c>
       <c r="H30" t="n">
-        <v>-43.36225891113281</v>
+        <v>-77.41486358642578</v>
       </c>
       <c r="I30" t="n">
-        <v>74.49432373046875</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>70.66666666666667</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>29.03333333333332</v>
-      </c>
-      <c r="F31" t="n">
-        <v>101.5911865234375</v>
-      </c>
-      <c r="G31" t="n">
-        <v>4.581432819366455</v>
-      </c>
-      <c r="H31" t="n">
-        <v>-46.34334182739258</v>
-      </c>
-      <c r="I31" t="n">
-        <v>67.10404968261719</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>100.0144348144531</v>
-      </c>
-      <c r="G32" t="n">
-        <v>4.167401313781738</v>
-      </c>
-      <c r="H32" t="n">
-        <v>-49.76768112182617</v>
-      </c>
-      <c r="I32" t="n">
-        <v>60.64458465576172</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>75.53333333333333</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>24.16666666666666</v>
-      </c>
-      <c r="F33" t="n">
-        <v>98.61231231689453</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3.798205137252808</v>
-      </c>
-      <c r="H33" t="n">
-        <v>-53.54203414916992</v>
-      </c>
-      <c r="I33" t="n">
-        <v>55.20652770996094</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>77.96666666666667</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>21.73333333333333</v>
-      </c>
-      <c r="F34" t="n">
-        <v>97.36811065673828</v>
-      </c>
-      <c r="G34" t="n">
-        <v>3.468092679977417</v>
-      </c>
-      <c r="H34" t="n">
-        <v>-57.49200439453125</v>
-      </c>
-      <c r="I34" t="n">
-        <v>50.76336288452148</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>80.39999999999999</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>96.26604461669922</v>
-      </c>
-      <c r="G35" t="n">
-        <v>3.172082662582397</v>
-      </c>
-      <c r="H35" t="n">
-        <v>-61.41377639770508</v>
-      </c>
-      <c r="I35" t="n">
-        <v>47.21026611328125</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>82.83333333333333</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>16.86666666666667</v>
-      </c>
-      <c r="F36" t="n">
-        <v>95.29150390625</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2.905832052230835</v>
-      </c>
-      <c r="H36" t="n">
-        <v>-65.11982727050781</v>
-      </c>
-      <c r="I36" t="n">
-        <v>44.4134635925293</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>85.26666666666665</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>14.43333333333335</v>
-      </c>
-      <c r="F37" t="n">
-        <v>94.43093109130859</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2.665526151657104</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-68.46622467041016</v>
-      </c>
-      <c r="I37" t="n">
-        <v>42.24627304077148</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>87.69999999999999</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12.00000000000001</v>
-      </c>
-      <c r="F38" t="n">
-        <v>93.67191314697266</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.447858572006226</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-71.36507415771484</v>
-      </c>
-      <c r="I38" t="n">
-        <v>40.60018157958984</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>90.13333333333333</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>9.566666666666675</v>
-      </c>
-      <c r="F39" t="n">
-        <v>93.00320434570312</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2.249981164932251</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-73.79103851318359</v>
-      </c>
-      <c r="I39" t="n">
-        <v>39.37821960449219</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>92.56666666666666</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>7.133333333333338</v>
-      </c>
-      <c r="F40" t="n">
-        <v>92.41458892822266</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2.069477319717407</v>
-      </c>
-      <c r="H40" t="n">
-        <v>-75.77970886230469</v>
-      </c>
-      <c r="I40" t="n">
-        <v>38.49137878417969</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>95</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4.700000000000001</v>
-      </c>
-      <c r="F41" t="n">
-        <v>91.89684295654297</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1.904317021369934</v>
-      </c>
-      <c r="H41" t="n">
-        <v>-77.41483306884766</v>
-      </c>
-      <c r="I41" t="n">
-        <v>37.86310195922852</v>
+        <v>37.86309814453125</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML.xlsx
@@ -497,16 +497,16 @@
         <v>72.83333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>163.4480133056641</v>
+        <v>233.3121948242188</v>
       </c>
       <c r="G2" t="n">
-        <v>33.8506965637207</v>
+        <v>21.03477478027344</v>
       </c>
       <c r="H2" t="n">
-        <v>38.69892501831055</v>
+        <v>-251.7601470947266</v>
       </c>
       <c r="I2" t="n">
-        <v>239.6207580566406</v>
+        <v>42.04851150512695</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>159.9584503173828</v>
+        <v>232.5276489257812</v>
       </c>
       <c r="G3" t="n">
-        <v>30.74818229675293</v>
+        <v>20.55056381225586</v>
       </c>
       <c r="H3" t="n">
-        <v>26.39996528625488</v>
+        <v>-243.2376251220703</v>
       </c>
       <c r="I3" t="n">
-        <v>220.3340301513672</v>
+        <v>40.90630340576172</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>156.1432037353516</v>
+        <v>231.7863311767578</v>
       </c>
       <c r="G4" t="n">
-        <v>27.81741142272949</v>
+        <v>20.07412147521973</v>
       </c>
       <c r="H4" t="n">
-        <v>15.37427139282227</v>
+        <v>-234.2625122070312</v>
       </c>
       <c r="I4" t="n">
-        <v>203.8133850097656</v>
+        <v>39.65926742553711</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>65.53333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>152.0557403564453</v>
+        <v>231.0587615966797</v>
       </c>
       <c r="G5" t="n">
-        <v>25.04518508911133</v>
+        <v>19.68446159362793</v>
       </c>
       <c r="H5" t="n">
-        <v>8.030043601989746</v>
+        <v>-224.8839569091797</v>
       </c>
       <c r="I5" t="n">
-        <v>192.6739807128906</v>
+        <v>38.37767791748047</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>147.7683258056641</v>
+        <v>230.3175201416016</v>
       </c>
       <c r="G6" t="n">
-        <v>22.42837905883789</v>
+        <v>19.47727203369141</v>
       </c>
       <c r="H6" t="n">
-        <v>1.288897156715393</v>
+        <v>-215.1609649658203</v>
       </c>
       <c r="I6" t="n">
-        <v>181.418701171875</v>
+        <v>37.12418365478516</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>143.3658599853516</v>
+        <v>229.5378875732422</v>
       </c>
       <c r="G7" t="n">
-        <v>19.97669219970703</v>
+        <v>19.5553150177002</v>
       </c>
       <c r="H7" t="n">
-        <v>-4.337436676025391</v>
+        <v>-205.15966796875</v>
       </c>
       <c r="I7" t="n">
-        <v>170.5476684570312</v>
+        <v>35.95307159423828</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>138.9378967285156</v>
+        <v>228.6977691650391</v>
       </c>
       <c r="G8" t="n">
-        <v>17.70913505554199</v>
+        <v>20.01219749450684</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.467507362365723</v>
+        <v>-194.9503784179688</v>
       </c>
       <c r="I8" t="n">
-        <v>161.9538726806641</v>
+        <v>34.90798187255859</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>55.8</v>
       </c>
       <c r="F9" t="n">
-        <v>134.5699920654297</v>
+        <v>227.7778778076172</v>
       </c>
       <c r="G9" t="n">
-        <v>15.64644432067871</v>
+        <v>20.91432571411133</v>
       </c>
       <c r="H9" t="n">
-        <v>-12.68798065185547</v>
+        <v>-184.6063079833984</v>
       </c>
       <c r="I9" t="n">
-        <v>154.6984405517578</v>
+        <v>34.02016067504883</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>130.3369140625</v>
+        <v>226.7616729736328</v>
       </c>
       <c r="G10" t="n">
-        <v>13.80323028564453</v>
+        <v>22.28897476196289</v>
       </c>
       <c r="H10" t="n">
-        <v>-17.3156909942627</v>
+        <v>-174.2012939453125</v>
       </c>
       <c r="I10" t="n">
-        <v>147.717529296875</v>
+        <v>33.30641937255859</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>126.2980651855469</v>
+        <v>225.6353759765625</v>
       </c>
       <c r="G11" t="n">
-        <v>12.18283653259277</v>
+        <v>24.12480926513672</v>
       </c>
       <c r="H11" t="n">
-        <v>-21.78987884521484</v>
+        <v>-163.808837890625</v>
       </c>
       <c r="I11" t="n">
-        <v>140.3986511230469</v>
+        <v>32.76828384399414</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>122.4960327148438</v>
+        <v>224.3875885009766</v>
       </c>
       <c r="G12" t="n">
-        <v>10.77618885040283</v>
+        <v>26.38266372680664</v>
       </c>
       <c r="H12" t="n">
-        <v>-25.7661190032959</v>
+        <v>-153.5009155273438</v>
       </c>
       <c r="I12" t="n">
-        <v>132.6969146728516</v>
+        <v>32.39278411865234</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +816,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>118.9574279785156</v>
+        <v>223.0092315673828</v>
       </c>
       <c r="G13" t="n">
-        <v>9.564249038696289</v>
+        <v>29.00971603393555</v>
       </c>
       <c r="H13" t="n">
-        <v>-29.17549133300781</v>
+        <v>-143.3468780517578</v>
       </c>
       <c r="I13" t="n">
-        <v>124.7720108032227</v>
+        <v>32.15434265136719</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>115.6950302124023</v>
+        <v>221.4932861328125</v>
       </c>
       <c r="G14" t="n">
-        <v>8.522297859191895</v>
+        <v>31.95050811767578</v>
       </c>
       <c r="H14" t="n">
-        <v>-32.02054977416992</v>
+        <v>-133.4128875732422</v>
       </c>
       <c r="I14" t="n">
-        <v>116.6630172729492</v>
+        <v>32.01876449584961</v>
       </c>
     </row>
     <row r="15">
@@ -874,16 +874,16 @@
         <v>41.2</v>
       </c>
       <c r="F15" t="n">
-        <v>112.7107238769531</v>
+        <v>219.8344268798828</v>
       </c>
       <c r="G15" t="n">
-        <v>7.624358654022217</v>
+        <v>35.15355682373047</v>
       </c>
       <c r="H15" t="n">
-        <v>-34.40034484863281</v>
+        <v>-123.7611312866211</v>
       </c>
       <c r="I15" t="n">
-        <v>108.3360900878906</v>
+        <v>31.9472484588623</v>
       </c>
     </row>
     <row r="16">
@@ -903,16 +903,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>109.9983444213867</v>
+        <v>218.02880859375</v>
       </c>
       <c r="G16" t="n">
-        <v>6.846392631530762</v>
+        <v>38.57386779785156</v>
       </c>
       <c r="H16" t="n">
-        <v>-36.51168441772461</v>
+        <v>-114.4496459960938</v>
       </c>
       <c r="I16" t="n">
-        <v>99.79259490966797</v>
+        <v>31.90073204040527</v>
       </c>
     </row>
     <row r="17">
@@ -932,16 +932,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>107.5461730957031</v>
+        <v>216.0737457275391</v>
       </c>
       <c r="G17" t="n">
-        <v>6.167929649353027</v>
+        <v>42.17345809936523</v>
       </c>
       <c r="H17" t="n">
-        <v>-38.58074569702148</v>
+        <v>-105.5320739746094</v>
       </c>
       <c r="I17" t="n">
-        <v>91.138427734375</v>
+        <v>31.8432788848877</v>
       </c>
     </row>
     <row r="18">
@@ -961,16 +961,16 @@
         <v>33.90000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>105.3391342163086</v>
+        <v>213.9675750732422</v>
       </c>
       <c r="G18" t="n">
-        <v>5.572481155395508</v>
+        <v>45.92079162597656</v>
       </c>
       <c r="H18" t="n">
-        <v>-40.80999374389648</v>
+        <v>-97.05741119384766</v>
       </c>
       <c r="I18" t="n">
-        <v>82.60395050048828</v>
+        <v>31.74480056762695</v>
       </c>
     </row>
     <row r="19">
@@ -990,16 +990,16 @@
         <v>31.46666666666668</v>
       </c>
       <c r="F19" t="n">
-        <v>103.360107421875</v>
+        <v>211.7091064453125</v>
       </c>
       <c r="G19" t="n">
-        <v>5.047057151794434</v>
+        <v>49.78977966308594</v>
       </c>
       <c r="H19" t="n">
-        <v>-43.36225891113281</v>
+        <v>-89.07064819335938</v>
       </c>
       <c r="I19" t="n">
-        <v>74.49432373046875</v>
+        <v>31.5826244354248</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
         <v>29.03333333333335</v>
       </c>
       <c r="F20" t="n">
-        <v>101.5911865234375</v>
+        <v>209.2975921630859</v>
       </c>
       <c r="G20" t="n">
-        <v>4.581432819366455</v>
+        <v>53.75895309448242</v>
       </c>
       <c r="H20" t="n">
-        <v>-46.34334182739258</v>
+        <v>-81.61280059814453</v>
       </c>
       <c r="I20" t="n">
-        <v>67.10404968261719</v>
+        <v>31.34221458435059</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>26.60000000000002</v>
       </c>
       <c r="F21" t="n">
-        <v>100.0144348144531</v>
+        <v>206.7322845458984</v>
       </c>
       <c r="G21" t="n">
-        <v>4.167402267456055</v>
+        <v>57.81057357788086</v>
       </c>
       <c r="H21" t="n">
-        <v>-49.76766586303711</v>
+        <v>-74.72177124023438</v>
       </c>
       <c r="I21" t="n">
-        <v>60.64457702636719</v>
+        <v>31.01726341247559</v>
       </c>
     </row>
     <row r="22">
@@ -1077,16 +1077,16 @@
         <v>24.16666666666669</v>
       </c>
       <c r="F22" t="n">
-        <v>98.61231231689453</v>
+        <v>204.0121002197266</v>
       </c>
       <c r="G22" t="n">
-        <v>3.79820704460144</v>
+        <v>61.93011093139648</v>
       </c>
       <c r="H22" t="n">
-        <v>-53.54202651977539</v>
+        <v>-68.43335723876953</v>
       </c>
       <c r="I22" t="n">
-        <v>55.20651245117188</v>
+        <v>30.60915946960449</v>
       </c>
     </row>
     <row r="23">
@@ -1106,16 +1106,16 @@
         <v>21.73333333333335</v>
       </c>
       <c r="F23" t="n">
-        <v>97.36811065673828</v>
+        <v>201.1353149414062</v>
       </c>
       <c r="G23" t="n">
-        <v>3.46809196472168</v>
+        <v>66.10576629638672</v>
       </c>
       <c r="H23" t="n">
-        <v>-57.49200439453125</v>
+        <v>-62.78250122070312</v>
       </c>
       <c r="I23" t="n">
-        <v>50.76337432861328</v>
+        <v>30.12613487243652</v>
       </c>
     </row>
     <row r="24">
@@ -1135,16 +1135,16 @@
         <v>19.30000000000003</v>
       </c>
       <c r="F24" t="n">
-        <v>96.26605224609375</v>
+        <v>198.0988159179688</v>
       </c>
       <c r="G24" t="n">
-        <v>3.172086715698242</v>
+        <v>70.32810974121094</v>
       </c>
       <c r="H24" t="n">
-        <v>-61.41377639770508</v>
+        <v>-57.80528259277344</v>
       </c>
       <c r="I24" t="n">
-        <v>47.21028137207031</v>
+        <v>29.58226776123047</v>
       </c>
     </row>
     <row r="25">
@@ -1164,16 +1164,16 @@
         <v>16.86666666666669</v>
       </c>
       <c r="F25" t="n">
-        <v>95.29150390625</v>
+        <v>194.8975677490234</v>
       </c>
       <c r="G25" t="n">
-        <v>2.905833959579468</v>
+        <v>74.58970642089844</v>
       </c>
       <c r="H25" t="n">
-        <v>-65.11988830566406</v>
+        <v>-53.5421028137207</v>
       </c>
       <c r="I25" t="n">
-        <v>44.41344451904297</v>
+        <v>28.99625015258789</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1193,16 @@
         <v>14.43333333333337</v>
       </c>
       <c r="F26" t="n">
-        <v>94.43093109130859</v>
+        <v>191.5231781005859</v>
       </c>
       <c r="G26" t="n">
-        <v>2.665525913238525</v>
+        <v>78.88530731201172</v>
       </c>
       <c r="H26" t="n">
-        <v>-68.46622467041016</v>
+        <v>-50.04181289672852</v>
       </c>
       <c r="I26" t="n">
-        <v>42.24628829956055</v>
+        <v>28.38992118835449</v>
       </c>
     </row>
     <row r="27">
@@ -1222,16 +1222,16 @@
         <v>12.00000000000003</v>
       </c>
       <c r="F27" t="n">
-        <v>93.67191314697266</v>
+        <v>187.9624481201172</v>
       </c>
       <c r="G27" t="n">
-        <v>2.447859048843384</v>
+        <v>83.21134948730469</v>
       </c>
       <c r="H27" t="n">
-        <v>-71.36506652832031</v>
+        <v>-47.36966323852539</v>
       </c>
       <c r="I27" t="n">
-        <v>40.60018539428711</v>
+        <v>27.78719902038574</v>
       </c>
     </row>
     <row r="28">
@@ -1251,16 +1251,16 @@
         <v>9.566666666666691</v>
       </c>
       <c r="F28" t="n">
-        <v>93.00320434570312</v>
+        <v>184.19384765625</v>
       </c>
       <c r="G28" t="n">
-        <v>2.249981641769409</v>
+        <v>87.56618499755859</v>
       </c>
       <c r="H28" t="n">
-        <v>-73.79104614257812</v>
+        <v>-45.62053298950195</v>
       </c>
       <c r="I28" t="n">
-        <v>39.37821197509766</v>
+        <v>27.21265983581543</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1280,16 @@
         <v>7.133333333333354</v>
       </c>
       <c r="F29" t="n">
-        <v>92.41458892822266</v>
+        <v>180.1817626953125</v>
       </c>
       <c r="G29" t="n">
-        <v>2.069476366043091</v>
+        <v>91.94939422607422</v>
       </c>
       <c r="H29" t="n">
-        <v>-75.77972412109375</v>
+        <v>-44.94614791870117</v>
       </c>
       <c r="I29" t="n">
-        <v>38.49136352539062</v>
+        <v>26.69107818603516</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1309,16 @@
         <v>4.700000000000017</v>
       </c>
       <c r="F30" t="n">
-        <v>91.89684295654297</v>
+        <v>175.8624114990234</v>
       </c>
       <c r="G30" t="n">
-        <v>1.904317855834961</v>
+        <v>96.36045074462891</v>
       </c>
       <c r="H30" t="n">
-        <v>-77.41486358642578</v>
+        <v>-45.61819839477539</v>
       </c>
       <c r="I30" t="n">
-        <v>37.86309814453125</v>
+        <v>26.24860191345215</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML.xlsx
@@ -497,16 +497,16 @@
         <v>72.83333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>233.3121948242188</v>
+        <v>291.72607421875</v>
       </c>
       <c r="G2" t="n">
-        <v>21.03477478027344</v>
+        <v>24.55333709716797</v>
       </c>
       <c r="H2" t="n">
-        <v>-251.7601470947266</v>
+        <v>-442.2510681152344</v>
       </c>
       <c r="I2" t="n">
-        <v>42.04851150512695</v>
+        <v>91.952392578125</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>232.5276489257812</v>
+        <v>287.1479187011719</v>
       </c>
       <c r="G3" t="n">
-        <v>20.55056381225586</v>
+        <v>26.24062156677246</v>
       </c>
       <c r="H3" t="n">
-        <v>-243.2376251220703</v>
+        <v>-431.3962707519531</v>
       </c>
       <c r="I3" t="n">
-        <v>40.90630340576172</v>
+        <v>93.18820953369141</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>231.7863311767578</v>
+        <v>283.2054748535156</v>
       </c>
       <c r="G4" t="n">
-        <v>20.07412147521973</v>
+        <v>27.85612869262695</v>
       </c>
       <c r="H4" t="n">
-        <v>-234.2625122070312</v>
+        <v>-420.1668395996094</v>
       </c>
       <c r="I4" t="n">
-        <v>39.65926742553711</v>
+        <v>94.10670471191406</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>65.53333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>231.0587615966797</v>
+        <v>279.880859375</v>
       </c>
       <c r="G5" t="n">
-        <v>19.68446159362793</v>
+        <v>29.359130859375</v>
       </c>
       <c r="H5" t="n">
-        <v>-224.8839569091797</v>
+        <v>-408.6286315917969</v>
       </c>
       <c r="I5" t="n">
-        <v>38.37767791748047</v>
+        <v>94.79004669189453</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>230.3175201416016</v>
+        <v>277.1448669433594</v>
       </c>
       <c r="G6" t="n">
-        <v>19.47727203369141</v>
+        <v>30.73353004455566</v>
       </c>
       <c r="H6" t="n">
-        <v>-215.1609649658203</v>
+        <v>-396.815673828125</v>
       </c>
       <c r="I6" t="n">
-        <v>37.12418365478516</v>
+        <v>95.30351257324219</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>229.5378875732422</v>
+        <v>274.9584350585938</v>
       </c>
       <c r="G7" t="n">
-        <v>19.5553150177002</v>
+        <v>31.98003005981445</v>
       </c>
       <c r="H7" t="n">
-        <v>-205.15966796875</v>
+        <v>-384.7367248535156</v>
       </c>
       <c r="I7" t="n">
-        <v>35.95307159423828</v>
+        <v>95.69040679931641</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>228.6977691650391</v>
+        <v>273.2756042480469</v>
       </c>
       <c r="G8" t="n">
-        <v>20.01219749450684</v>
+        <v>33.11083221435547</v>
       </c>
       <c r="H8" t="n">
-        <v>-194.9503784179688</v>
+        <v>-372.38134765625</v>
       </c>
       <c r="I8" t="n">
-        <v>34.90798187255859</v>
+        <v>95.96858978271484</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>55.8</v>
       </c>
       <c r="F9" t="n">
-        <v>227.7778778076172</v>
+        <v>272.0452880859375</v>
       </c>
       <c r="G9" t="n">
-        <v>20.91432571411133</v>
+        <v>34.14615249633789</v>
       </c>
       <c r="H9" t="n">
-        <v>-184.6063079833984</v>
+        <v>-359.7262268066406</v>
       </c>
       <c r="I9" t="n">
-        <v>34.02016067504883</v>
+        <v>96.13020324707031</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>226.7616729736328</v>
+        <v>271.2135314941406</v>
       </c>
       <c r="G10" t="n">
-        <v>22.28897476196289</v>
+        <v>35.11183166503906</v>
       </c>
       <c r="H10" t="n">
-        <v>-174.2012939453125</v>
+        <v>-346.7420349121094</v>
       </c>
       <c r="I10" t="n">
-        <v>33.30641937255859</v>
+        <v>96.14284515380859</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>225.6353759765625</v>
+        <v>270.7251892089844</v>
       </c>
       <c r="G11" t="n">
-        <v>24.12480926513672</v>
+        <v>36.03715515136719</v>
       </c>
       <c r="H11" t="n">
-        <v>-163.808837890625</v>
+        <v>-333.4012756347656</v>
       </c>
       <c r="I11" t="n">
-        <v>32.76828384399414</v>
+        <v>95.95201110839844</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>224.3875885009766</v>
+        <v>270.5252990722656</v>
       </c>
       <c r="G12" t="n">
-        <v>26.38266372680664</v>
+        <v>36.95297622680664</v>
       </c>
       <c r="H12" t="n">
-        <v>-153.5009155273438</v>
+        <v>-319.6851806640625</v>
       </c>
       <c r="I12" t="n">
-        <v>32.39278411865234</v>
+        <v>95.48529815673828</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +816,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>223.0092315673828</v>
+        <v>270.560546875</v>
       </c>
       <c r="G13" t="n">
-        <v>29.00971603393555</v>
+        <v>37.88932800292969</v>
       </c>
       <c r="H13" t="n">
-        <v>-143.3468780517578</v>
+        <v>-305.5907592773438</v>
       </c>
       <c r="I13" t="n">
-        <v>32.15434265136719</v>
+        <v>94.65791320800781</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>221.4932861328125</v>
+        <v>270.7804565429688</v>
       </c>
       <c r="G14" t="n">
-        <v>31.95050811767578</v>
+        <v>38.87311553955078</v>
       </c>
       <c r="H14" t="n">
-        <v>-133.4128875732422</v>
+        <v>-291.1357116699219</v>
       </c>
       <c r="I14" t="n">
-        <v>32.01876449584961</v>
+        <v>93.38016510009766</v>
       </c>
     </row>
     <row r="15">
@@ -874,16 +874,16 @@
         <v>41.2</v>
       </c>
       <c r="F15" t="n">
-        <v>219.8344268798828</v>
+        <v>271.13818359375</v>
       </c>
       <c r="G15" t="n">
-        <v>35.15355682373047</v>
+        <v>39.9261589050293</v>
       </c>
       <c r="H15" t="n">
-        <v>-123.7611312866211</v>
+        <v>-276.3623657226562</v>
       </c>
       <c r="I15" t="n">
-        <v>31.9472484588623</v>
+        <v>91.56752014160156</v>
       </c>
     </row>
     <row r="16">
@@ -903,16 +903,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>218.02880859375</v>
+        <v>271.5917358398438</v>
       </c>
       <c r="G16" t="n">
-        <v>38.57386779785156</v>
+        <v>41.06362152099609</v>
       </c>
       <c r="H16" t="n">
-        <v>-114.4496459960938</v>
+        <v>-261.3384704589844</v>
       </c>
       <c r="I16" t="n">
-        <v>31.90073204040527</v>
+        <v>89.15309143066406</v>
       </c>
     </row>
     <row r="17">
@@ -932,16 +932,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>216.0737457275391</v>
+        <v>272.1040954589844</v>
       </c>
       <c r="G17" t="n">
-        <v>42.17345809936523</v>
+        <v>42.29370498657227</v>
       </c>
       <c r="H17" t="n">
-        <v>-105.5320739746094</v>
+        <v>-246.1572265625</v>
       </c>
       <c r="I17" t="n">
-        <v>31.8432788848877</v>
+        <v>86.10049438476562</v>
       </c>
     </row>
     <row r="18">
@@ -961,16 +961,16 @@
         <v>33.90000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>213.9675750732422</v>
+        <v>272.6437683105469</v>
       </c>
       <c r="G18" t="n">
-        <v>45.92079162597656</v>
+        <v>43.61814117431641</v>
       </c>
       <c r="H18" t="n">
-        <v>-97.05741119384766</v>
+        <v>-230.9334869384766</v>
       </c>
       <c r="I18" t="n">
-        <v>31.74480056762695</v>
+        <v>82.41456604003906</v>
       </c>
     </row>
     <row r="19">
@@ -990,16 +990,16 @@
         <v>31.46666666666668</v>
       </c>
       <c r="F19" t="n">
-        <v>211.7091064453125</v>
+        <v>273.1846923828125</v>
       </c>
       <c r="G19" t="n">
-        <v>49.78977966308594</v>
+        <v>45.03316497802734</v>
       </c>
       <c r="H19" t="n">
-        <v>-89.07064819335938</v>
+        <v>-215.7986450195312</v>
       </c>
       <c r="I19" t="n">
-        <v>31.5826244354248</v>
+        <v>78.14570617675781</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
         <v>29.03333333333335</v>
       </c>
       <c r="F20" t="n">
-        <v>209.2975921630859</v>
+        <v>273.7060241699219</v>
       </c>
       <c r="G20" t="n">
-        <v>53.75895309448242</v>
+        <v>46.53114318847656</v>
       </c>
       <c r="H20" t="n">
-        <v>-81.61280059814453</v>
+        <v>-200.8926544189453</v>
       </c>
       <c r="I20" t="n">
-        <v>31.34221458435059</v>
+        <v>73.38616180419922</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>26.60000000000002</v>
       </c>
       <c r="F21" t="n">
-        <v>206.7322845458984</v>
+        <v>274.1913757324219</v>
       </c>
       <c r="G21" t="n">
-        <v>57.81057357788086</v>
+        <v>48.10190582275391</v>
       </c>
       <c r="H21" t="n">
-        <v>-74.72177124023438</v>
+        <v>-186.3544464111328</v>
       </c>
       <c r="I21" t="n">
-        <v>31.01726341247559</v>
+        <v>68.25952911376953</v>
       </c>
     </row>
     <row r="22">
@@ -1077,16 +1077,16 @@
         <v>24.16666666666669</v>
       </c>
       <c r="F22" t="n">
-        <v>204.0121002197266</v>
+        <v>274.6288452148438</v>
       </c>
       <c r="G22" t="n">
-        <v>61.93011093139648</v>
+        <v>49.73415374755859</v>
       </c>
       <c r="H22" t="n">
-        <v>-68.43335723876953</v>
+        <v>-172.3130340576172</v>
       </c>
       <c r="I22" t="n">
-        <v>30.60915946960449</v>
+        <v>62.90581893920898</v>
       </c>
     </row>
     <row r="23">
@@ -1106,16 +1106,16 @@
         <v>21.73333333333335</v>
       </c>
       <c r="F23" t="n">
-        <v>201.1353149414062</v>
+        <v>275.0094909667969</v>
       </c>
       <c r="G23" t="n">
-        <v>66.10576629638672</v>
+        <v>51.41648101806641</v>
       </c>
       <c r="H23" t="n">
-        <v>-62.78250122070312</v>
+        <v>-158.8791046142578</v>
       </c>
       <c r="I23" t="n">
-        <v>30.12613487243652</v>
+        <v>57.46743392944336</v>
       </c>
     </row>
     <row r="24">
@@ -1135,16 +1135,16 @@
         <v>19.30000000000003</v>
       </c>
       <c r="F24" t="n">
-        <v>198.0988159179688</v>
+        <v>275.3275756835938</v>
       </c>
       <c r="G24" t="n">
-        <v>70.32810974121094</v>
+        <v>53.13808441162109</v>
       </c>
       <c r="H24" t="n">
-        <v>-57.80528259277344</v>
+        <v>-146.1398162841797</v>
       </c>
       <c r="I24" t="n">
-        <v>29.58226776123047</v>
+        <v>52.08000946044922</v>
       </c>
     </row>
     <row r="25">
@@ -1164,16 +1164,16 @@
         <v>16.86666666666669</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8975677490234</v>
+        <v>275.5793151855469</v>
       </c>
       <c r="G25" t="n">
-        <v>74.58970642089844</v>
+        <v>54.88926696777344</v>
       </c>
       <c r="H25" t="n">
-        <v>-53.5421028137207</v>
+        <v>-134.1558837890625</v>
       </c>
       <c r="I25" t="n">
-        <v>28.99625015258789</v>
+        <v>46.87019348144531</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1193,16 @@
         <v>14.43333333333337</v>
       </c>
       <c r="F26" t="n">
-        <v>191.5231781005859</v>
+        <v>275.7626953125</v>
       </c>
       <c r="G26" t="n">
-        <v>78.88530731201172</v>
+        <v>56.66173934936523</v>
       </c>
       <c r="H26" t="n">
-        <v>-50.04181289672852</v>
+        <v>-122.9620132446289</v>
       </c>
       <c r="I26" t="n">
-        <v>28.38992118835449</v>
+        <v>41.96080780029297</v>
       </c>
     </row>
     <row r="27">
@@ -1222,16 +1222,16 @@
         <v>12.00000000000003</v>
       </c>
       <c r="F27" t="n">
-        <v>187.9624481201172</v>
+        <v>275.8768615722656</v>
       </c>
       <c r="G27" t="n">
-        <v>83.21134948730469</v>
+        <v>58.44884872436523</v>
       </c>
       <c r="H27" t="n">
-        <v>-47.36966323852539</v>
+        <v>-112.5689926147461</v>
       </c>
       <c r="I27" t="n">
-        <v>27.78719902038574</v>
+        <v>37.48165512084961</v>
       </c>
     </row>
     <row r="28">
@@ -1251,16 +1251,16 @@
         <v>9.566666666666691</v>
       </c>
       <c r="F28" t="n">
-        <v>184.19384765625</v>
+        <v>275.9215393066406</v>
       </c>
       <c r="G28" t="n">
-        <v>87.56618499755859</v>
+        <v>60.24544525146484</v>
       </c>
       <c r="H28" t="n">
-        <v>-45.62053298950195</v>
+        <v>-102.9674682617188</v>
       </c>
       <c r="I28" t="n">
-        <v>27.21265983581543</v>
+        <v>33.58326721191406</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1280,16 @@
         <v>7.133333333333354</v>
       </c>
       <c r="F29" t="n">
-        <v>180.1817626953125</v>
+        <v>275.8972473144531</v>
       </c>
       <c r="G29" t="n">
-        <v>91.94939422607422</v>
+        <v>62.04789733886719</v>
       </c>
       <c r="H29" t="n">
-        <v>-44.94614791870117</v>
+        <v>-94.13227081298828</v>
       </c>
       <c r="I29" t="n">
-        <v>26.69107818603516</v>
+        <v>30.4458179473877</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1309,16 @@
         <v>4.700000000000017</v>
       </c>
       <c r="F30" t="n">
-        <v>175.8624114990234</v>
+        <v>275.8043212890625</v>
       </c>
       <c r="G30" t="n">
-        <v>96.36045074462891</v>
+        <v>63.85397720336914</v>
       </c>
       <c r="H30" t="n">
-        <v>-45.61819839477539</v>
+        <v>-86.02682495117188</v>
       </c>
       <c r="I30" t="n">
-        <v>26.24860191345215</v>
+        <v>28.26863098144531</v>
       </c>
     </row>
   </sheetData>
